--- a/xlsx/FR/standard_effects_FR.xlsx
+++ b/xlsx/FR/standard_effects_FR.xlsx
@@ -17,25 +17,25 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Sample: non-weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample: weighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q4</t>
+    <t xml:space="preserve">Reduce air pollution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduce CO2 emissions from cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neither agree or disagree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somewhat agree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strongly agree</t>
   </si>
 </sst>
 </file>
@@ -377,64 +377,60 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.227501397428731</v>
+        <v>0.0328963761781903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.204944555347326</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.2034</v>
+        <v>0.0661043422483393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.277808831749581</v>
+        <v>0.0841485517413793</v>
       </c>
       <c r="C3" t="n">
-        <v>0.244554338774632</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.239</v>
+        <v>0.0748848920501624</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279485746226942</v>
+        <v>0.234799044325921</v>
       </c>
       <c r="C4" t="n">
-        <v>0.248694436345023</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.2439</v>
+        <v>0.262841483566742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.389913717784309</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.390972008416408</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.215204024594746</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.301806669533019</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.3137</v>
+      <c r="B6" t="n">
+        <v>0.258242309970201</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.205197273718348</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/FR/standard_effects_FR.xlsx
+++ b/xlsx/FR/standard_effects_FR.xlsx
@@ -383,10 +383,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0328963761781903</v>
+        <v>0.0370231198123127</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0661043422483393</v>
+        <v>0.0695929396822658</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0841485517413793</v>
+        <v>0.0846264843378099</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0748848920501624</v>
+        <v>0.0870711852744483</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234799044325921</v>
+        <v>0.227378909186836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.262841483566742</v>
+        <v>0.249559365398467</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.389913717784309</v>
+        <v>0.389960691146495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.390972008416408</v>
+        <v>0.388573894762932</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258242309970201</v>
+        <v>0.261010795516547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205197273718348</v>
+        <v>0.205202614881886</v>
       </c>
     </row>
   </sheetData>
